--- a/Assets/StreamingAssets/Unit.xlsx
+++ b/Assets/StreamingAssets/Unit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectsDatabase\Unity Projects\ClashRoyale-like_demo\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EEA0F7-F78A-43F4-82AE-A5BC92EF77C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA74DF8D-8ACC-442F-BFBD-E24C41C3B659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1356" yWindow="1752" windowWidth="26016" windowHeight="13668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,6 +120,10 @@
   </si>
   <si>
     <t>散弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,13 +454,13 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
@@ -482,60 +482,60 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>3000</v>
@@ -609,10 +609,10 @@
         <v>50</v>
       </c>
       <c r="K3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>1750</v>
@@ -659,10 +659,10 @@
         <v>50</v>
       </c>
       <c r="K4">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="L4">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
         <v>0.8</v>
@@ -682,10 +682,10 @@
         <v>2001</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>1000</v>
@@ -709,10 +709,10 @@
         <v>50</v>
       </c>
       <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
         <v>3</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
       </c>
       <c r="M5">
         <v>1.2</v>
@@ -732,10 +732,10 @@
         <v>2002</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>173</v>
@@ -759,10 +759,10 @@
         <v>50</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6">
         <v>1.2</v>
@@ -782,10 +782,10 @@
         <v>2003</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>411</v>
@@ -809,10 +809,10 @@
         <v>50</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="L7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M7">
         <v>1.1000000000000001</v>
@@ -832,10 +832,10 @@
         <v>2004</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>2251</v>
@@ -859,10 +859,10 @@
         <v>50</v>
       </c>
       <c r="K8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L8">
         <v>3</v>
-      </c>
-      <c r="L8">
-        <v>5</v>
       </c>
       <c r="M8">
         <v>1.5</v>
@@ -882,10 +882,10 @@
         <v>2005</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>500</v>
@@ -909,10 +909,10 @@
         <v>50</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9">
         <v>1.3</v>

--- a/Assets/StreamingAssets/Unit.xlsx
+++ b/Assets/StreamingAssets/Unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectsDatabase\Unity Projects\ClashRoyale-like_demo\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA74DF8D-8ACC-442F-BFBD-E24C41C3B659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F246C6D-AA0F-4F6A-929A-4DBC3229197F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -918,7 +918,7 @@
         <v>1.3</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9">
         <v>5</v>

--- a/Assets/StreamingAssets/Unit.xlsx
+++ b/Assets/StreamingAssets/Unit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectsDatabase\Unity Projects\ClashRoyale-like_demo\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F246C6D-AA0F-4F6A-929A-4DBC3229197F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8853FBE9-3551-4D4A-946D-2CD0E08EB726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1356" yWindow="1752" windowWidth="26016" windowHeight="13668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,18 +39,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Priority</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,6 +116,14 @@
   </si>
   <si>
     <t>Prepare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProxyRadius</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +454,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -465,9 +465,9 @@
     <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
@@ -477,65 +477,65 @@
     <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
       <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -547,13 +547,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>3.5</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>50</v>
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>3000</v>
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>1750</v>
@@ -647,13 +647,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J4">
         <v>50</v>
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>1000</v>
@@ -697,13 +697,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J5">
         <v>50</v>
@@ -735,7 +735,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>173</v>
@@ -747,13 +747,13 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>2.8</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J6">
         <v>50</v>
@@ -785,7 +785,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>411</v>
@@ -797,13 +797,13 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>2.5</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J7">
         <v>50</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>2251</v>
@@ -847,13 +847,13 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="J8">
         <v>50</v>
@@ -885,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>500</v>
@@ -897,13 +897,13 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>2.5</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J9">
         <v>50</v>

--- a/Assets/StreamingAssets/Unit.xlsx
+++ b/Assets/StreamingAssets/Unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectsDatabase\Unity Projects\ClashRoyale-like_demo\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8853FBE9-3551-4D4A-946D-2CD0E08EB726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBEAE1A-F026-4FE0-92DE-A44A766F42FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1356" yWindow="1752" windowWidth="26016" windowHeight="13668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -747,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>2.8</v>
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>2.5</v>
@@ -847,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H9">
         <v>2.5</v>

--- a/Assets/StreamingAssets/Unit.xlsx
+++ b/Assets/StreamingAssets/Unit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectsDatabase\Unity Projects\ClashRoyale-like_demo\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Royale\ClashRoyale-like_demo\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBEAE1A-F026-4FE0-92DE-A44A766F42FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D9A67A-6063-4895-A934-4FE41311E2BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1356" yWindow="1752" windowWidth="26016" windowHeight="13668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>ProxyRadius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBuilding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isGround</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,33 +463,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,8 +539,17 @@
       <c r="P1" t="s">
         <v>13</v>
       </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -577,7 +599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -627,7 +649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -677,7 +699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2001</v>
       </c>
@@ -727,7 +749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2002</v>
       </c>
@@ -777,7 +799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2003</v>
       </c>
@@ -827,7 +849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2004</v>
       </c>
@@ -877,7 +899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2005</v>
       </c>

--- a/Assets/StreamingAssets/Unit.xlsx
+++ b/Assets/StreamingAssets/Unit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Royale\ClashRoyale-like_demo\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectsDatabase\Unity Projects\ClashRoyale-like_demo\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D9A67A-6063-4895-A934-4FE41311E2BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C436D52C-5D0C-42C4-B17B-E72A0178FDAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-4755" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,73 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>MeeSh0o</author>
+  </authors>
+  <commentList>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{9E933049-1B1D-4F6A-A8ED-6166EB6C735B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>MeeSh0o:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 对地
+1 对空，其次对地
+2 对建筑
+3 无视空地，对非建筑
+4 无视空地，无视建筑</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{54EBDFF3-FE56-4EA8-B847-22686BD0833F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>MeeSh0o:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 建筑
+1 生物</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
@@ -123,19 +190,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProxyRadius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isBuilding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>isGround</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +224,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -461,36 +543,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" customWidth="1"/>
+    <col min="18" max="18" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +599,7 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -540,16 +623,16 @@
         <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -598,8 +681,17 @@
       <c r="P2">
         <v>5</v>
       </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -631,10 +723,10 @@
         <v>50</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -648,8 +740,17 @@
       <c r="P3">
         <v>6</v>
       </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -681,10 +782,10 @@
         <v>50</v>
       </c>
       <c r="K4">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M4">
         <v>0.8</v>
@@ -698,8 +799,17 @@
       <c r="P4">
         <v>5</v>
       </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2001</v>
       </c>
@@ -748,8 +858,17 @@
       <c r="P5">
         <v>5</v>
       </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2002</v>
       </c>
@@ -798,8 +917,17 @@
       <c r="P6">
         <v>6</v>
       </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2003</v>
       </c>
@@ -848,8 +976,17 @@
       <c r="P7">
         <v>8</v>
       </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2004</v>
       </c>
@@ -898,8 +1035,17 @@
       <c r="P8">
         <v>5</v>
       </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2005</v>
       </c>
@@ -947,11 +1093,21 @@
       </c>
       <c r="P9">
         <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>